--- a/StocksBook.xlsx
+++ b/StocksBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donov\Documents\Git\stockJournal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a6910\Documents\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70005364-E2B3-4839-9226-4D4886F7A17A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E188C7-0995-48E2-BB0B-6787FF114363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="3520" windowWidth="28800" windowHeight="15560" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34530" yWindow="-255" windowWidth="21600" windowHeight="12855" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="13" r:id="rId1"/>
@@ -2794,6 +2794,7 @@
     <v>2</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=simon+property+group</v>
     <v>Image of SIMON PROPERTY GROUP, INC.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a23d6h&amp;q=XNYS%3aSPG&amp;form=skydnc</v>
@@ -2920,6 +2921,7 @@
     <v>11</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=dow+realty+o</v>
     <v>Image of REALTY INCOME CORPORATION</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1z11h&amp;q=XNYS%3aO&amp;form=skydnc</v>
@@ -2991,6 +2993,7 @@
     <v>17</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=cvs+health</v>
     <v>Image of CVS HEALTH CORPORATION</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1qlnm&amp;q=XNYS%3aCVS&amp;form=skydnc</v>
@@ -3062,6 +3065,7 @@
     <v>23</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=intel</v>
     <v>Image of INTEL CORPORATION</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1vmf2&amp;q=XNAS%3aINTC&amp;form=skydnc</v>
@@ -3133,6 +3137,7 @@
     <v>29</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=microsoft</v>
     <v>Image of MICROSOFT CORPORATION</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1xzim&amp;q=XNAS%3aMSFT&amp;form=skydnc</v>
@@ -3204,6 +3209,7 @@
     <v>35</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=aegon</v>
     <v>Image of Aegon NV</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1mxnm&amp;q=XNYS%3aAEG&amp;form=skydnc</v>
@@ -3274,6 +3280,7 @@
     <v>41</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=delta+air+lines</v>
     <v>Image of DELTA AIR LINES, INC.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1qqbh&amp;q=XNYS%3aDAL&amp;form=skydnc</v>
@@ -3349,6 +3356,7 @@
     <v>48</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=las+vegas+sands</v>
     <v>Image of LAS VEGAS SANDS CORP.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1x7im&amp;q=XNYS%3aLVS&amp;form=skydnc</v>
@@ -3420,6 +3428,7 @@
     <v>54</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=at%26t</v>
     <v>Image of AT&amp;T INC.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a23www&amp;q=XNYS%3aT&amp;form=skydnc</v>
@@ -3491,6 +3500,7 @@
     <v>60</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=hanesbrands</v>
     <v>Image of HANESBRANDS INC.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1uh3m&amp;q=XNYS%3aHBI&amp;form=skydnc</v>
@@ -3617,6 +3627,7 @@
     <v>69</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=leggett+%26+platt</v>
     <v>Image of LEGGETT &amp; PLATT, INCORPORATED</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1wu4c&amp;q=XNYS%3aLEG&amp;form=skydnc</v>
@@ -3688,6 +3699,7 @@
     <v>75</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=starbucks</v>
     <v>Image of STARBUCKS CORPORATION</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a22k9c&amp;q=XNAS%3aSBUX&amp;form=skydnc</v>
@@ -3763,6 +3775,7 @@
     <v>82</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=franklin+templeton+investments</v>
     <v>Image of FRANKLIN RESOURCES, INC.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1odgh&amp;q=XNYS%3aBEN&amp;form=skydnc</v>
@@ -3834,6 +3847,7 @@
     <v>88</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=avago+technologies</v>
     <v>Image of Broadcom Inc.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1nz8m&amp;q=XNAS%3aAVGO&amp;form=skydnc</v>
@@ -3909,6 +3923,7 @@
     <v>95</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=salesforce+com</v>
     <v>Image of SALESFORCE.COM, INC.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1qc1h&amp;q=XNYS%3aCRM&amp;form=skydnc</v>
@@ -3984,6 +3999,7 @@
     <v>102</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=medtronic</v>
     <v>Image of MEDTRONIC PUBLIC LIMITED COMPANY</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1xg3m&amp;q=XNYS%3aMDT&amp;form=skydnc</v>
@@ -4055,6 +4071,7 @@
     <v>108</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=nvidia+drivers</v>
     <v>Image of NVIDIA CORPORATION</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1yv52&amp;q=XNAS%3aNVDA&amp;form=skydnc</v>
@@ -4126,6 +4143,7 @@
     <v>114</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=apple+inc</v>
     <v>Image of APPLE INC.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1mou2&amp;q=XNAS%3aAAPL&amp;form=skydnc</v>
@@ -4197,6 +4215,7 @@
     <v>120</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=cbs+corporation</v>
     <v>Image of VIACOMCBS INC.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1pb4c&amp;q=XNAS%3aVIAC&amp;form=skydnc</v>
@@ -4268,6 +4287,7 @@
     <v>126</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=netflix</v>
     <v>Image of NETFLIX, INC.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1ygoc&amp;q=XNAS%3aNFLX&amp;form=skydnc</v>
@@ -4339,6 +4359,7 @@
     <v>132</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=the+walt+disney+company</v>
     <v>Image of THE WALT DISNEY COMPANY</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1r2z2&amp;q=XNYS%3aDIS&amp;form=skydnc</v>
@@ -4410,6 +4431,7 @@
     <v>138</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=amazon.com</v>
     <v>Image of AMAZON.COM, INC.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1nhlh&amp;q=XNAS%3aAMZN&amp;form=skydnc</v>
@@ -4481,6 +4503,7 @@
     <v>144</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=boeing</v>
     <v>Image of THE BOEING COMPANY</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1o4ec&amp;q=XNYS%3aBA&amp;form=skydnc</v>
@@ -4552,6 +4575,7 @@
     <v>150</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=international+paper</v>
     <v>Image of INTERNATIONAL PAPER COMPANY</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1vo7w&amp;q=XNYS%3aIP&amp;form=skydnc</v>
@@ -4627,6 +4651,7 @@
     <v>157</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=agilent+technologies</v>
     <v>Image of AGILENT TECHNOLOGIES, INC.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1mnrw&amp;q=XNYS%3aA&amp;form=skydnc</v>
@@ -4753,6 +4778,7 @@
     <v>166</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=hilton+worldwide</v>
     <v>Image of HILTON WORLDWIDE HOLDINGS INC.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1uqpr&amp;q=XNYS%3aHLT&amp;form=skydnc</v>
@@ -4824,6 +4850,7 @@
     <v>172</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=lowe%27s</v>
     <v>Image of LOWE'S COMPANIES, INC.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1x2ur&amp;q=XNYS%3aLOW&amp;form=skydnc</v>
@@ -4895,6 +4922,7 @@
     <v>178</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=pnc+com</v>
     <v>Image of THE PNC FINANCIAL SERVICES GROUP, INC.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a21277&amp;q=XNYS%3aPNC&amp;form=skydnc</v>
@@ -5021,6 +5049,7 @@
     <v>187</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=gildan+activewear</v>
     <v>Image of GILDAN ACTIVEWEAR INC.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1tvlh&amp;q=XNYS%3aGIL&amp;form=skydnc</v>
@@ -5146,6 +5175,7 @@
     <v>196</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=zillow</v>
     <v>Image of ZILLOW GROUP, INC.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a26f77&amp;q=XNAS%3aZ&amp;form=skydnc</v>
@@ -5216,6 +5246,7 @@
     <v>202</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=cisco+systems</v>
     <v>Image of CISCO SYSTEMS, INC.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1qe5r&amp;q=XNAS%3aCSCO&amp;form=skydnc</v>
@@ -5397,6 +5428,7 @@
     <v>214</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=activision+blizzard</v>
     <v>Image of ACTIVISION BLIZZARD, INC.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1nxoc&amp;q=XNAS%3aATVI&amp;form=skydnc</v>
@@ -5468,6 +5500,7 @@
     <v>220</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=alphabet+inc.</v>
     <v>Image of ALPHABET INC.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1u3p2&amp;q=XNAS%3aGOOG&amp;form=skydnc</v>
@@ -5539,6 +5572,7 @@
     <v>226</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=general+electric</v>
     <v>Image of GENERAL ELECTRIC COMPANY</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1tr1h&amp;q=XNYS%3aGE&amp;form=skydnc</v>
@@ -5610,6 +5644,7 @@
     <v>232</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=adobe+systems</v>
     <v>Image of ADOBE INC.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1mv7w&amp;q=XNAS%3aADBE&amp;form=skydnc</v>
@@ -5681,6 +5716,7 @@
     <v>238</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=costco</v>
     <v>Image of COSTCO WHOLESALE CORPORATION</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1q6k2&amp;q=XNAS%3aCOST&amp;form=skydnc</v>
@@ -5752,6 +5788,7 @@
     <v>244</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=fastenal</v>
     <v>Image of Fastenal Company</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1sl52&amp;q=XNAS%3aFAST&amp;form=skydnc</v>
@@ -5933,6 +5970,7 @@
     <v>256</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=johnson+%26+johnson</v>
     <v>Image of JOHNSON &amp; JOHNSON</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1w8ec&amp;q=XNYS%3aJNJ&amp;form=skydnc</v>
@@ -6109,6 +6147,7 @@
     <v>268</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=waste+management+inc</v>
     <v>Image of WASTE MANAGEMENT, INC.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a25xjc&amp;q=XNYS%3aWM&amp;form=skydnc</v>
@@ -6180,6 +6219,7 @@
     <v>274</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=xilinx</v>
     <v>Image of XILINX, INC.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a2683m&amp;q=XNAS%3aXLNX&amp;form=skydnc</v>
@@ -6251,6 +6291,7 @@
     <v>280</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=ibm</v>
     <v>Image of INTERNATIONAL BUSINESS MACHINES CORPORATION</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1v6nm&amp;q=XNYS%3aIBM&amp;form=skydnc</v>
@@ -6322,6 +6363,7 @@
     <v>286</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=qualcomm</v>
     <v>Image of QUALCOMM INCORPORATED</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a21k2w&amp;q=XNAS%3aQCOM&amp;form=skydnc</v>
@@ -6448,6 +6490,7 @@
     <v>295</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=clorox</v>
     <v>Image of THE CLOROX COMPANY</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1pvu2&amp;q=XNYS%3aCLX&amp;form=skydnc</v>
@@ -6519,6 +6562,7 @@
     <v>301</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=caterpillar+inc.</v>
     <v>Image of CATERPILLAR INC.</v>
+    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1p7zr&amp;q=XNYS%3aCAT&amp;form=skydnc</v>
@@ -6650,6 +6694,7 @@
     <k n="Attribution" t="r"/>
     <k n="More Images Address" t="s"/>
     <k n="Text" t="s"/>
+    <k n="Blip Identifier" t="s"/>
   </s>
   <s t="_linkedentitycore">
     <k n="%EntityCulture" t="s"/>
@@ -8190,19 +8235,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" customWidth="1"/>
-    <col min="4" max="4" width="6.26953125" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" customWidth="1"/>
-    <col min="8" max="8" width="32.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8228,7 +8273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="57">
         <v>44063</v>
       </c>
@@ -8254,7 +8299,7 @@
         <v>1523.62</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="57">
         <v>44063</v>
       </c>
@@ -8280,7 +8325,7 @@
         <v>235.34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="57">
         <v>44062</v>
       </c>
@@ -8303,7 +8348,7 @@
         <v>195.93</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="57">
         <v>44062</v>
       </c>
@@ -8329,7 +8374,7 @@
         <v>236.59</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="57">
         <v>44062</v>
       </c>
@@ -8355,7 +8400,7 @@
         <v>237.68</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="57">
         <v>44062</v>
       </c>
@@ -8381,7 +8426,7 @@
         <v>298.86</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="57">
         <v>44062</v>
       </c>
@@ -8407,7 +8452,7 @@
         <v>322.18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="57">
         <v>44062</v>
       </c>
@@ -8433,7 +8478,7 @@
         <v>783.72</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="57">
         <v>44062</v>
       </c>
@@ -8459,7 +8504,7 @@
         <v>1246.67</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="57">
         <v>44062</v>
       </c>
@@ -8485,7 +8530,7 @@
         <v>857.09</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="57">
         <v>44062</v>
       </c>
@@ -8511,7 +8556,7 @@
         <v>11.35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="57">
         <v>44060</v>
       </c>
@@ -8534,7 +8579,7 @@
         <v>-947.73</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="57">
         <v>44057</v>
       </c>
@@ -8551,7 +8596,7 @@
         <v>5.14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="57">
         <v>44057</v>
       </c>
@@ -8568,7 +8613,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="57">
         <v>44057</v>
       </c>
@@ -8591,7 +8636,7 @@
         <v>88.88</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="57">
         <v>44057</v>
       </c>
@@ -8614,7 +8659,7 @@
         <v>38.86</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="57">
         <v>44057</v>
       </c>
@@ -8637,7 +8682,7 @@
         <v>88.64</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="57">
         <v>44057</v>
       </c>
@@ -8660,7 +8705,7 @@
         <v>186.38</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="57">
         <v>44057</v>
       </c>
@@ -8683,7 +8728,7 @@
         <v>201.93</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="57">
         <v>44057</v>
       </c>
@@ -8706,7 +8751,7 @@
         <v>146.99</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="57">
         <v>44057</v>
       </c>
@@ -8732,7 +8777,7 @@
         <v>251.45</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="57">
         <v>44057</v>
       </c>
@@ -8755,7 +8800,7 @@
         <v>21.93</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="57">
         <v>44050</v>
       </c>
@@ -8778,7 +8823,7 @@
         <v>51.55</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="57">
         <v>44046</v>
       </c>
@@ -8795,7 +8840,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="57">
         <v>44043</v>
       </c>
@@ -8812,7 +8857,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="57">
         <v>44043</v>
       </c>
@@ -8829,7 +8874,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="57">
         <v>44043</v>
       </c>
@@ -8852,7 +8897,7 @@
         <v>76.64</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="57">
         <v>44043</v>
       </c>
@@ -8875,7 +8920,7 @@
         <v>35.380000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="57">
         <v>44041</v>
       </c>
@@ -8898,7 +8943,7 @@
         <v>-1492.58</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="57">
         <v>44041</v>
       </c>
@@ -8921,7 +8966,7 @@
         <v>83.2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="57">
         <v>44041</v>
       </c>
@@ -8947,7 +8992,7 @@
         <v>283.58999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="57">
         <v>44039</v>
       </c>
@@ -8964,7 +9009,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="57">
         <v>44036</v>
       </c>
@@ -8987,7 +9032,7 @@
         <v>-173.19</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="57">
         <v>44036</v>
       </c>
@@ -9010,7 +9055,7 @@
         <v>-243.39</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="57">
         <v>44036</v>
       </c>
@@ -9033,7 +9078,7 @@
         <v>-190.05</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="57">
         <v>44036</v>
       </c>
@@ -9056,7 +9101,7 @@
         <v>-475.2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="57">
         <v>44036</v>
       </c>
@@ -9079,7 +9124,7 @@
         <v>-480.74</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="57">
         <v>44036</v>
       </c>
@@ -9102,7 +9147,7 @@
         <v>-526.38</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="57">
         <v>44036</v>
       </c>
@@ -9125,7 +9170,7 @@
         <v>-970.86</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="57">
         <v>44036</v>
       </c>
@@ -9142,7 +9187,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="57">
         <v>44034</v>
       </c>
@@ -9165,7 +9210,7 @@
         <v>-791.97</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="57">
         <v>44032</v>
       </c>
@@ -9188,7 +9233,7 @@
         <v>-294.39999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="57">
         <v>44032</v>
       </c>
@@ -9211,7 +9256,7 @@
         <v>-304.10000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="57">
         <v>44032</v>
       </c>
@@ -9234,7 +9279,7 @@
         <v>-202.9</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="57">
         <v>44032</v>
       </c>
@@ -9257,7 +9302,7 @@
         <v>-141.81</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="57">
         <v>44032</v>
       </c>
@@ -9280,7 +9325,7 @@
         <v>-98.01</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="57">
         <v>44028</v>
       </c>
@@ -9303,7 +9348,7 @@
         <v>-110.76</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="57">
         <v>44028</v>
       </c>
@@ -9326,7 +9371,7 @@
         <v>-127.01</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="57">
         <v>44027</v>
       </c>
@@ -9349,7 +9394,7 @@
         <v>-518.95000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="57">
         <v>44027</v>
       </c>
@@ -9366,7 +9411,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="57">
         <v>44027</v>
       </c>
@@ -9383,7 +9428,7 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="57">
         <v>44027</v>
       </c>
@@ -9400,7 +9445,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="57">
         <v>44027</v>
       </c>
@@ -9417,7 +9462,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="57">
         <v>44026</v>
       </c>
@@ -9440,7 +9485,7 @@
         <v>-48.76</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="57">
         <v>44026</v>
       </c>
@@ -9457,7 +9502,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="57">
         <v>44025</v>
       </c>
@@ -9480,7 +9525,7 @@
         <v>-472.5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="57">
         <v>44025</v>
       </c>
@@ -9503,7 +9548,7 @@
         <v>154.30000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="57">
         <v>44025</v>
       </c>
@@ -9529,7 +9574,7 @@
         <v>322.79000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="57">
         <v>44025</v>
       </c>
@@ -9552,7 +9597,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="57">
         <v>44025</v>
       </c>
@@ -9575,7 +9620,7 @@
         <v>101.5</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="57">
         <v>44025</v>
       </c>
@@ -9598,7 +9643,7 @@
         <v>49.08</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="57">
         <v>44025</v>
       </c>
@@ -9624,7 +9669,7 @@
         <v>245.39</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="57">
         <v>44025</v>
       </c>
@@ -9650,7 +9695,7 @@
         <v>545.21</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="57">
         <v>44022</v>
       </c>
@@ -9667,7 +9712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="57">
         <v>44021</v>
       </c>
@@ -9684,7 +9729,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="57">
         <v>44021</v>
       </c>
@@ -9701,7 +9746,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="57">
         <v>44021</v>
       </c>
@@ -9718,7 +9763,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="57">
         <v>44020</v>
       </c>
@@ -9741,7 +9786,7 @@
         <v>-58.5</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="57">
         <v>44020</v>
       </c>
@@ -9764,7 +9809,7 @@
         <v>-44.76</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="57">
         <v>44020</v>
       </c>
@@ -9787,7 +9832,7 @@
         <v>-92</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="57">
         <v>44020</v>
       </c>
@@ -9810,7 +9855,7 @@
         <v>-44.5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="57">
         <v>44020</v>
       </c>
@@ -9833,7 +9878,7 @@
         <v>-49.5</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="57">
         <v>44020</v>
       </c>
@@ -9856,7 +9901,7 @@
         <v>-20.350000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="57">
         <v>44020</v>
       </c>
@@ -9873,7 +9918,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="57">
         <v>44014</v>
       </c>
@@ -9890,7 +9935,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="57">
         <v>44013</v>
       </c>
@@ -9907,7 +9952,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="57">
         <v>44012</v>
       </c>
@@ -9930,7 +9975,7 @@
         <v>-92.65</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="57">
         <v>44012</v>
       </c>
@@ -9947,7 +9992,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="57">
         <v>44012</v>
       </c>
@@ -9964,7 +10009,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="57">
         <v>44012</v>
       </c>
@@ -9981,7 +10026,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="57">
         <v>44012</v>
       </c>
@@ -10004,7 +10049,7 @@
         <v>70.75</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="57">
         <v>44012</v>
       </c>
@@ -10021,7 +10066,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="57">
         <v>44008</v>
       </c>
@@ -10038,7 +10083,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="57">
         <v>44008</v>
       </c>
@@ -10061,7 +10106,7 @@
         <v>27.94</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="57">
         <v>44007</v>
       </c>
@@ -10084,7 +10129,7 @@
         <v>-27.6</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="57">
         <v>44006</v>
       </c>
@@ -10101,7 +10146,7 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="57">
         <v>44006</v>
       </c>
@@ -10118,7 +10163,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="57">
         <v>44001</v>
       </c>
@@ -10135,7 +10180,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="57">
         <v>44001</v>
       </c>
@@ -10152,7 +10197,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="57">
         <v>44001</v>
       </c>
@@ -10169,7 +10214,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="57">
         <v>43998</v>
       </c>
@@ -10192,7 +10237,7 @@
         <v>217.45</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="57">
         <v>43998</v>
       </c>
@@ -10218,7 +10263,7 @@
         <v>512.65</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="57">
         <v>43997</v>
       </c>
@@ -10235,7 +10280,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="57">
         <v>43994</v>
       </c>
@@ -10252,7 +10297,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="57">
         <v>43991</v>
       </c>
@@ -10275,7 +10320,7 @@
         <v>-999.62</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="57">
         <v>43991</v>
       </c>
@@ -10292,7 +10337,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="57">
         <v>43991</v>
       </c>
@@ -10318,7 +10363,7 @@
         <v>44.32</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="57">
         <v>43991</v>
       </c>
@@ -10341,7 +10386,7 @@
         <v>42.03</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="57">
         <v>43991</v>
       </c>
@@ -10364,7 +10409,7 @@
         <v>165.59</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="57">
         <v>43991</v>
       </c>
@@ -10387,7 +10432,7 @@
         <v>102.6</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="57">
         <v>43991</v>
       </c>
@@ -10410,7 +10455,7 @@
         <v>81.39</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="57">
         <v>43991</v>
       </c>
@@ -10433,7 +10478,7 @@
         <v>200.3</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="57">
         <v>43991</v>
       </c>
@@ -10456,7 +10501,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="57">
         <v>43991</v>
       </c>
@@ -10482,7 +10527,7 @@
         <v>444.07</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="57">
         <v>43991</v>
       </c>
@@ -10508,7 +10553,7 @@
         <v>758.76</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="57">
         <v>43991</v>
       </c>
@@ -10534,7 +10579,7 @@
         <v>425.35</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="57">
         <v>43991</v>
       </c>
@@ -10557,7 +10602,7 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="57">
         <v>43991</v>
       </c>
@@ -10580,7 +10625,7 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="57">
         <v>43991</v>
       </c>
@@ -10603,7 +10648,7 @@
         <v>89.98</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="57">
         <v>43990</v>
       </c>
@@ -10626,7 +10671,7 @@
         <v>73.98</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="57">
         <v>43990</v>
       </c>
@@ -10649,7 +10694,7 @@
         <v>85.8</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="57">
         <v>43990</v>
       </c>
@@ -10672,7 +10717,7 @@
         <v>22.75</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="57">
         <v>43990</v>
       </c>
@@ -10695,7 +10740,7 @@
         <v>136.5</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="57">
         <v>43990</v>
       </c>
@@ -10718,7 +10763,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="57">
         <v>43990</v>
       </c>
@@ -10741,7 +10786,7 @@
         <v>148.26</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="57">
         <v>43990</v>
       </c>
@@ -10764,7 +10809,7 @@
         <v>189.25</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="57">
         <v>43990</v>
       </c>
@@ -10790,7 +10835,7 @@
         <v>515.27</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="57">
         <v>43986</v>
       </c>
@@ -10807,7 +10852,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="57">
         <v>43985</v>
       </c>
@@ -10830,7 +10875,7 @@
         <v>-198.25</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="57">
         <v>43985</v>
       </c>
@@ -10853,7 +10898,7 @@
         <v>-188.53</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="57">
         <v>43985</v>
       </c>
@@ -10876,7 +10921,7 @@
         <v>-235.35</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="57">
         <v>43984</v>
       </c>
@@ -10893,7 +10938,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="57">
         <v>43980</v>
       </c>
@@ -10910,7 +10955,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="57">
         <v>43979</v>
       </c>
@@ -10927,7 +10972,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="57">
         <v>43973</v>
       </c>
@@ -10944,7 +10989,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="57">
         <v>43973</v>
       </c>
@@ -10961,7 +11006,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="57">
         <v>43966</v>
       </c>
@@ -10978,7 +11023,7 @@
         <v>8.2200000000000006</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="57">
         <v>43966</v>
       </c>
@@ -10995,7 +11040,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="57">
         <v>43966</v>
       </c>
@@ -11012,7 +11057,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="57">
         <v>43966</v>
       </c>
@@ -11029,7 +11074,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="57">
         <v>43966</v>
       </c>
@@ -11046,7 +11091,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="57">
         <v>43965</v>
       </c>
@@ -11069,7 +11114,7 @@
         <v>-27.32</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="57">
         <v>43965</v>
       </c>
@@ -11092,7 +11137,7 @@
         <v>-68.739999999999995</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="57">
         <v>43965</v>
       </c>
@@ -11115,7 +11160,7 @@
         <v>-22.29</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="57">
         <v>43965</v>
       </c>
@@ -11138,7 +11183,7 @@
         <v>-37.799999999999997</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="57">
         <v>43957</v>
       </c>
@@ -11161,7 +11206,7 @@
         <v>-104.81</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="57">
         <v>43956</v>
       </c>
@@ -11184,7 +11229,7 @@
         <v>-61.88</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="57">
         <v>43952</v>
       </c>
@@ -11201,7 +11246,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="57">
         <v>43952</v>
       </c>
@@ -11218,7 +11263,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="57">
         <v>43951</v>
       </c>
@@ -11235,7 +11280,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="57">
         <v>43949</v>
       </c>
@@ -11258,7 +11303,7 @@
         <v>8.0399999999999991</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="57">
         <v>43949</v>
       </c>
@@ -11281,7 +11326,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="57">
         <v>43949</v>
       </c>
@@ -11304,7 +11349,7 @@
         <v>30.22</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="57">
         <v>43948</v>
       </c>
@@ -11327,7 +11372,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="57">
         <v>43948</v>
       </c>
@@ -11350,7 +11395,7 @@
         <v>53.09</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="57">
         <v>43948</v>
       </c>
@@ -11373,7 +11418,7 @@
         <v>174.84</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="57">
         <v>43945</v>
       </c>
@@ -11396,7 +11441,7 @@
         <v>-148.80000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="57">
         <v>43943</v>
       </c>
@@ -11419,7 +11464,7 @@
         <v>-96.68</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="57">
         <v>43942</v>
       </c>
@@ -11442,7 +11487,7 @@
         <v>-123.59</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="57">
         <v>43941</v>
       </c>
@@ -11465,7 +11510,7 @@
         <v>-153.19999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="57">
         <v>43941</v>
       </c>
@@ -11488,7 +11533,7 @@
         <v>-155.53</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="57">
         <v>43941</v>
       </c>
@@ -11511,7 +11556,7 @@
         <v>-170.5</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="57">
         <v>43941</v>
       </c>
@@ -11534,7 +11579,7 @@
         <v>-174.1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="57">
         <v>43941</v>
       </c>
@@ -11557,7 +11602,7 @@
         <v>-363.71</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="57">
         <v>43937</v>
       </c>
@@ -11580,7 +11625,7 @@
         <v>-201.78</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="57">
         <v>43937</v>
       </c>
@@ -11603,7 +11648,7 @@
         <v>-69.02</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="57">
         <v>43937</v>
       </c>
@@ -11626,7 +11671,7 @@
         <v>-153.31</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="57">
         <v>43937</v>
       </c>
@@ -11649,7 +11694,7 @@
         <v>-68.150000000000006</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="57">
         <v>43937</v>
       </c>
@@ -11672,7 +11717,7 @@
         <v>-87.18</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="57">
         <v>43937</v>
       </c>
@@ -11695,7 +11740,7 @@
         <v>-160.75</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="57">
         <v>43937</v>
       </c>
@@ -11718,7 +11763,7 @@
         <v>-31.24</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="57">
         <v>43937</v>
       </c>
@@ -11741,7 +11786,7 @@
         <v>-45.8</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="57">
         <v>43937</v>
       </c>
@@ -11764,7 +11809,7 @@
         <v>-135.22</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="57">
         <v>43937</v>
       </c>
@@ -11787,7 +11832,7 @@
         <v>-58.14</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="57">
         <v>43937</v>
       </c>
@@ -11810,7 +11855,7 @@
         <v>-68.459999999999994</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="57">
         <v>43936</v>
       </c>
@@ -11833,7 +11878,7 @@
         <v>-92.75</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="57">
         <v>43936</v>
       </c>
@@ -11856,7 +11901,7 @@
         <v>-106.09</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="57">
         <v>43936</v>
       </c>
@@ -11873,7 +11918,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="57">
         <v>43936</v>
       </c>
@@ -11890,7 +11935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="57">
         <v>43936</v>
       </c>
@@ -11907,7 +11952,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="57">
         <v>43935</v>
       </c>
@@ -11924,7 +11969,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="57">
         <v>43934</v>
       </c>
@@ -11947,7 +11992,7 @@
         <v>-107.16</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="57">
         <v>43931</v>
       </c>
@@ -11964,7 +12009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="57">
         <v>43928</v>
       </c>
@@ -11987,7 +12032,7 @@
         <v>-24.14</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="57">
         <v>43928</v>
       </c>
@@ -12010,7 +12055,7 @@
         <v>-34.229999999999997</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="57">
         <v>43928</v>
       </c>
@@ -12033,7 +12078,7 @@
         <v>-59.31</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="57">
         <v>43924</v>
       </c>
@@ -12050,7 +12095,7 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="57">
         <v>43923</v>
       </c>
@@ -12073,7 +12118,7 @@
         <v>-7.51</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="57">
         <v>43923</v>
       </c>
@@ -12096,7 +12141,7 @@
         <v>-7.78</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="57">
         <v>43923</v>
       </c>
@@ -12119,7 +12164,7 @@
         <v>-8.1999999999999993</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="57">
         <v>43923</v>
       </c>
@@ -12142,7 +12187,7 @@
         <v>-5.3</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="57">
         <v>43921</v>
       </c>
@@ -12159,7 +12204,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="57">
         <v>43920</v>
       </c>
@@ -12176,7 +12221,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="57">
         <v>43920</v>
       </c>
@@ -12193,7 +12238,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="57">
         <v>43917</v>
       </c>
@@ -12216,7 +12261,7 @@
         <v>-47.08</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="57">
         <v>43917</v>
       </c>
@@ -12239,7 +12284,7 @@
         <v>-94.73</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="57">
         <v>43913</v>
       </c>
@@ -12262,7 +12307,7 @@
         <v>-85.93</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="57">
         <v>43913</v>
       </c>
@@ -12285,7 +12330,7 @@
         <v>-53.21</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="57">
         <v>43910</v>
       </c>
@@ -12308,7 +12353,7 @@
         <v>-115.27</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="57">
         <v>43910</v>
       </c>
@@ -12325,7 +12370,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="57">
         <v>43909</v>
       </c>
@@ -12348,7 +12393,7 @@
         <v>-48.07</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="57">
         <v>43909</v>
       </c>
@@ -12371,7 +12416,7 @@
         <v>-48.04</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="57">
         <v>43909</v>
       </c>
@@ -12394,7 +12439,7 @@
         <v>-218.15</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="57">
         <v>43909</v>
       </c>
@@ -12417,7 +12462,7 @@
         <v>-184.59</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="57">
         <v>43909</v>
       </c>
@@ -12440,7 +12485,7 @@
         <v>-23.72</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="57">
         <v>43908</v>
       </c>
@@ -12463,7 +12508,7 @@
         <v>-123.68</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="57">
         <v>43908</v>
       </c>
@@ -12486,7 +12531,7 @@
         <v>-138.72</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="57">
         <v>43907</v>
       </c>
@@ -12509,7 +12554,7 @@
         <v>-54.8</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="57">
         <v>43907</v>
       </c>
@@ -12532,7 +12577,7 @@
         <v>-21.35</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="57">
         <v>43907</v>
       </c>
@@ -12555,7 +12600,7 @@
         <v>-57.31</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="57">
         <v>43907</v>
       </c>
@@ -12578,7 +12623,7 @@
         <v>-131.07</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="57">
         <v>43903</v>
       </c>
@@ -12601,7 +12646,7 @@
         <v>-36.89</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="57">
         <v>43903</v>
       </c>
@@ -12624,7 +12669,7 @@
         <v>-23.29</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="57">
         <v>43903</v>
       </c>
@@ -12647,7 +12692,7 @@
         <v>-21.99</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="57">
         <v>43903</v>
       </c>
@@ -12670,7 +12715,7 @@
         <v>-14.61</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="57">
         <v>43903</v>
       </c>
@@ -12687,7 +12732,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="57">
         <v>43902</v>
       </c>
@@ -12710,7 +12755,7 @@
         <v>-43.08</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="57">
         <v>43902</v>
       </c>
@@ -12733,7 +12778,7 @@
         <v>-27.39</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="57">
         <v>43902</v>
       </c>
@@ -12756,7 +12801,7 @@
         <v>-43.91</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="57">
         <v>43902</v>
       </c>
@@ -12779,7 +12824,7 @@
         <v>-35.29</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="57">
         <v>43900</v>
       </c>
@@ -12802,7 +12847,7 @@
         <v>-105</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="57">
         <v>43900</v>
       </c>
@@ -12825,7 +12870,7 @@
         <v>-70.400000000000006</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="57">
         <v>43900</v>
       </c>
@@ -12848,7 +12893,7 @@
         <v>-384.55</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="57">
         <v>43900</v>
       </c>
@@ -12871,7 +12916,7 @@
         <v>-135.78</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="57">
         <v>43900</v>
       </c>
@@ -12894,7 +12939,7 @@
         <v>-221.93</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="57">
         <v>43900</v>
       </c>
@@ -12917,7 +12962,7 @@
         <v>-154.43</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="57">
         <v>43900</v>
       </c>
@@ -12940,7 +12985,7 @@
         <v>80.36</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="57">
         <v>43892</v>
       </c>
@@ -12957,7 +13002,7 @@
         <v>4.26</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="57">
         <v>43889</v>
       </c>
@@ -12974,7 +13019,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="57">
         <v>43880</v>
       </c>
@@ -12997,7 +13042,7 @@
         <v>141.06</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="57">
         <v>43880</v>
       </c>
@@ -13020,7 +13065,7 @@
         <v>47.02</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="57">
         <v>43879</v>
       </c>
@@ -13043,7 +13088,7 @@
         <v>-138.96</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="57">
         <v>43875</v>
       </c>
@@ -13060,7 +13105,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="57">
         <v>43875</v>
       </c>
@@ -13077,7 +13122,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="57">
         <v>43874</v>
       </c>
@@ -13100,7 +13145,7 @@
         <v>-94.8</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="57">
         <v>43874</v>
       </c>
@@ -13123,7 +13168,7 @@
         <v>-94.4</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="57">
         <v>43874</v>
       </c>
@@ -13149,7 +13194,7 @@
         <v>272.08</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="57">
         <v>43871</v>
       </c>
@@ -13172,7 +13217,7 @@
         <v>-80.67</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="57">
         <v>43871</v>
       </c>
@@ -13195,7 +13240,7 @@
         <v>-45.4</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="57">
         <v>43861</v>
       </c>
@@ -13212,7 +13257,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="57">
         <v>43860</v>
       </c>
@@ -13229,7 +13274,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="57">
         <v>43854</v>
       </c>
@@ -13252,7 +13297,7 @@
         <v>207.36</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="57">
         <v>43845</v>
       </c>
@@ -13269,7 +13314,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="57">
         <v>43845</v>
       </c>
@@ -13286,7 +13331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="57">
         <v>43845</v>
       </c>
@@ -13303,7 +13348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="57">
         <v>43843</v>
       </c>
@@ -13320,7 +13365,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="57">
         <v>43840</v>
       </c>
@@ -13337,7 +13382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="57">
         <v>43826</v>
       </c>
@@ -13363,7 +13408,7 @@
         <v>-150.6</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="57">
         <v>43826</v>
       </c>
@@ -13386,7 +13431,7 @@
         <v>90.13</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="57">
         <v>43825</v>
       </c>
@@ -13409,7 +13454,7 @@
         <v>-193.92</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="57">
         <v>43825</v>
       </c>
@@ -13432,7 +13477,7 @@
         <v>-472.6</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="57">
         <v>43825</v>
       </c>
@@ -13455,7 +13500,7 @@
         <v>-379.6</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="57">
         <v>43825</v>
       </c>
@@ -13478,7 +13523,7 @@
         <v>-184.77</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="57">
         <v>43825</v>
       </c>
@@ -13501,7 +13546,7 @@
         <v>-362.54</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="57">
         <v>43825</v>
       </c>
@@ -13524,7 +13569,7 @@
         <v>-203.01</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="57">
         <v>43825</v>
       </c>
@@ -13547,7 +13592,7 @@
         <v>64.63</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="57">
         <v>43819</v>
       </c>
@@ -13570,7 +13615,7 @@
         <v>-278.58999999999997</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="57">
         <v>43819</v>
       </c>
@@ -13593,7 +13638,7 @@
         <v>-90.44</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="57">
         <v>43819</v>
       </c>
@@ -13616,7 +13661,7 @@
         <v>-172.44</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="57">
         <v>43819</v>
       </c>
@@ -13639,7 +13684,7 @@
         <v>-222.22</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="57">
         <v>43819</v>
       </c>
@@ -13662,7 +13707,7 @@
         <v>-222.69</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="57">
         <v>43819</v>
       </c>
@@ -13688,7 +13733,7 @@
         <v>619.23</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="57">
         <v>43819</v>
       </c>
@@ -13711,7 +13756,7 @@
         <v>135.84</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="57">
         <v>43812</v>
       </c>
@@ -13728,7 +13773,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="57">
         <v>43809</v>
       </c>
@@ -13751,7 +13796,7 @@
         <v>-134.12</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="57">
         <v>43784</v>
       </c>
@@ -13768,7 +13813,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="57">
         <v>43783</v>
       </c>
@@ -13791,7 +13836,7 @@
         <v>-580.66</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="57">
         <v>43776</v>
       </c>
@@ -13817,7 +13862,7 @@
         <v>788.25</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="57">
         <v>43761</v>
       </c>
@@ -13840,7 +13885,7 @@
         <v>-636.20000000000005</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="57">
         <v>43755</v>
       </c>
@@ -13881,19 +13926,19 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="19.1796875" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" customWidth="1"/>
-    <col min="18" max="18" width="15.1796875" customWidth="1"/>
-    <col min="20" max="20" width="15.453125" customWidth="1"/>
-    <col min="21" max="21" width="14.81640625" customWidth="1"/>
-    <col min="22" max="22" width="12.26953125" customWidth="1"/>
-    <col min="23" max="23" width="8.26953125" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -13970,7 +14015,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -14047,7 +14092,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -14124,7 +14169,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -14201,7 +14246,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -14278,7 +14323,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -14355,7 +14400,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -14443,13 +14488,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>178</v>
       </c>
@@ -14469,25 +14514,25 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
-    <col min="9" max="9" width="10.1796875" customWidth="1"/>
-    <col min="10" max="11" width="9.81640625" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="11" width="9.85546875" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
         <v>59</v>
       </c>
@@ -14525,12 +14570,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="62" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -14566,7 +14611,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -14602,7 +14647,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -14638,7 +14683,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -14674,7 +14719,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>185</v>
       </c>
@@ -14710,7 +14755,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>186</v>
       </c>
@@ -14746,7 +14791,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="78"/>
       <c r="C9" s="83"/>
       <c r="D9" s="83"/>
@@ -14759,7 +14804,7 @@
       <c r="K9" s="83"/>
       <c r="L9" s="84"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>187</v>
       </c>
@@ -14797,7 +14842,7 @@
         <v>43623000000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>188</v>
       </c>
@@ -14833,7 +14878,7 @@
         <v>15588000000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>189</v>
       </c>
@@ -14869,7 +14914,7 @@
         <v>4638000000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>190</v>
       </c>
@@ -14907,7 +14952,7 @@
         <v>0.28599999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>192</v>
       </c>
@@ -14945,7 +14990,7 @@
         <v>11464000000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="78"/>
       <c r="C15" s="83"/>
       <c r="D15" s="83"/>
@@ -14958,7 +15003,7 @@
       <c r="K15" s="83"/>
       <c r="L15" s="84"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>193</v>
       </c>
@@ -14994,7 +15039,7 @@
         <v>21951000000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -15030,7 +15075,7 @@
         <v>31611000000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>195</v>
       </c>
@@ -15066,7 +15111,7 @@
         <v>63186000000</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>196</v>
       </c>
@@ -15102,7 +15147,7 @@
         <v>9327000000</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>197</v>
       </c>
@@ -15138,7 +15183,7 @@
         <v>2090000000</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>198</v>
       </c>
@@ -15174,7 +15219,7 @@
         <v>51701000000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>199</v>
       </c>
@@ -15210,7 +15255,7 @@
         <v>5207000000</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>200</v>
       </c>
@@ -15246,7 +15291,7 @@
         <v>16692000000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>201</v>
       </c>
@@ -15282,7 +15327,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>202</v>
       </c>
@@ -15318,7 +15363,7 @@
         <v>0.26300000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>203</v>
       </c>
@@ -15354,7 +15399,7 @@
         <v>0.1676</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>204</v>
       </c>
@@ -15372,7 +15417,7 @@
       <c r="K27" s="91"/>
       <c r="L27" s="92"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>206</v>
       </c>
@@ -15408,7 +15453,7 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -15424,7 +15469,7 @@
       <c r="K29" s="86"/>
       <c r="L29" s="86"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>207</v>
       </c>
@@ -15446,7 +15491,7 @@
       <c r="K30" s="86"/>
       <c r="L30" s="86"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>170</v>
       </c>
@@ -15485,7 +15530,7 @@
         <v>24.37</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>169</v>
       </c>
@@ -15524,7 +15569,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>208</v>
       </c>
@@ -15543,7 +15588,7 @@
       <c r="K34" s="60"/>
       <c r="L34" s="60"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="61"/>
       <c r="C35" s="60"/>
       <c r="D35" s="60"/>
@@ -15556,7 +15601,7 @@
       <c r="K35" s="60"/>
       <c r="L35" s="60"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>209</v>
       </c>
@@ -15575,7 +15620,7 @@
       <c r="K36" s="60"/>
       <c r="L36" s="60"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>210</v>
       </c>
@@ -15594,7 +15639,7 @@
       <c r="K37" s="60"/>
       <c r="L37" s="60"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>211</v>
       </c>
@@ -15613,7 +15658,7 @@
       <c r="K38" s="60"/>
       <c r="L38" s="60"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>212</v>
       </c>
@@ -15632,7 +15677,7 @@
       <c r="K39" s="60"/>
       <c r="L39" s="60"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>213</v>
       </c>
@@ -15652,70 +15697,70 @@
       <c r="K40" s="60"/>
       <c r="L40" s="60"/>
     </row>
-    <row r="42" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="62" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="62"/>
     </row>
-    <row r="45" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="62" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="62" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="62" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>226</v>
       </c>
@@ -15760,7 +15805,7 @@
         <v>20.599999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>227</v>
       </c>
@@ -15805,7 +15850,7 @@
         <v>7.1049642239090538</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>228</v>
       </c>
@@ -15850,7 +15895,7 @@
         <v>20.021549986031825</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>229</v>
       </c>
@@ -15895,7 +15940,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>230</v>
       </c>
@@ -15906,72 +15951,72 @@
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B87" s="63" t="s">
         <v>5</v>
       </c>
@@ -15999,7 +16044,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B88" s="69">
         <f>'Full List'!B6</f>
         <v>49.4</v>
@@ -16019,42 +16064,42 @@
         <v>6.1399965083769492E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="56" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="56" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="56" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>27.16</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>256</v>
       </c>
@@ -16088,22 +16133,22 @@
       <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
-    <col min="9" max="9" width="10.1796875" customWidth="1"/>
-    <col min="10" max="11" width="9.81640625" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="11" width="9.85546875" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
         <v>9</v>
       </c>
@@ -16141,12 +16186,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="62" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -16182,7 +16227,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -16218,7 +16263,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -16254,7 +16299,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -16290,7 +16335,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>185</v>
       </c>
@@ -16326,7 +16371,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>186</v>
       </c>
@@ -16362,7 +16407,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="78"/>
       <c r="C9" s="83"/>
       <c r="D9" s="83"/>
@@ -16375,7 +16420,7 @@
       <c r="K9" s="83"/>
       <c r="L9" s="84"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>187</v>
       </c>
@@ -16413,7 +16458,7 @@
         <v>43623000000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>188</v>
       </c>
@@ -16449,7 +16494,7 @@
         <v>15588000000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>189</v>
       </c>
@@ -16485,7 +16530,7 @@
         <v>4638000000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>190</v>
       </c>
@@ -16523,7 +16568,7 @@
         <v>0.28599999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>192</v>
       </c>
@@ -16561,7 +16606,7 @@
         <v>11464000000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="78"/>
       <c r="C15" s="83"/>
       <c r="D15" s="83"/>
@@ -16574,7 +16619,7 @@
       <c r="K15" s="83"/>
       <c r="L15" s="84"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>193</v>
       </c>
@@ -16610,7 +16655,7 @@
         <v>21951000000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -16646,7 +16691,7 @@
         <v>31611000000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>195</v>
       </c>
@@ -16682,7 +16727,7 @@
         <v>63186000000</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>196</v>
       </c>
@@ -16718,7 +16763,7 @@
         <v>9327000000</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>197</v>
       </c>
@@ -16754,7 +16799,7 @@
         <v>2090000000</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>198</v>
       </c>
@@ -16790,7 +16835,7 @@
         <v>51701000000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>199</v>
       </c>
@@ -16826,7 +16871,7 @@
         <v>5207000000</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>200</v>
       </c>
@@ -16862,7 +16907,7 @@
         <v>16692000000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>201</v>
       </c>
@@ -16898,7 +16943,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>202</v>
       </c>
@@ -16934,7 +16979,7 @@
         <v>0.26300000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>203</v>
       </c>
@@ -16970,7 +17015,7 @@
         <v>0.1676</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>204</v>
       </c>
@@ -16988,7 +17033,7 @@
       <c r="K27" s="91"/>
       <c r="L27" s="92"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>206</v>
       </c>
@@ -17024,7 +17069,7 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -17040,7 +17085,7 @@
       <c r="K29" s="86"/>
       <c r="L29" s="86"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>207</v>
       </c>
@@ -17062,7 +17107,7 @@
       <c r="K30" s="86"/>
       <c r="L30" s="86"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>170</v>
       </c>
@@ -17101,7 +17146,7 @@
         <v>24.37</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>169</v>
       </c>
@@ -17140,7 +17185,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>208</v>
       </c>
@@ -17159,7 +17204,7 @@
       <c r="K34" s="60"/>
       <c r="L34" s="60"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="61"/>
       <c r="C35" s="60"/>
       <c r="D35" s="60"/>
@@ -17172,7 +17217,7 @@
       <c r="K35" s="60"/>
       <c r="L35" s="60"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>209</v>
       </c>
@@ -17191,7 +17236,7 @@
       <c r="K36" s="60"/>
       <c r="L36" s="60"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>210</v>
       </c>
@@ -17210,7 +17255,7 @@
       <c r="K37" s="60"/>
       <c r="L37" s="60"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>211</v>
       </c>
@@ -17229,7 +17274,7 @@
       <c r="K38" s="60"/>
       <c r="L38" s="60"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>212</v>
       </c>
@@ -17248,7 +17293,7 @@
       <c r="K39" s="60"/>
       <c r="L39" s="60"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>213</v>
       </c>
@@ -17268,70 +17313,70 @@
       <c r="K40" s="60"/>
       <c r="L40" s="60"/>
     </row>
-    <row r="42" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="62" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="62"/>
     </row>
-    <row r="45" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="62" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="62" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="62" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>226</v>
       </c>
@@ -17376,7 +17421,7 @@
         <v>20.599999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>227</v>
       </c>
@@ -17421,7 +17466,7 @@
         <v>7.1049642239090538</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>228</v>
       </c>
@@ -17466,7 +17511,7 @@
         <v>20.021549986031825</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>229</v>
       </c>
@@ -17511,7 +17556,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>230</v>
       </c>
@@ -17522,72 +17567,72 @@
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B87" s="63" t="s">
         <v>5</v>
       </c>
@@ -17615,7 +17660,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B88" s="69">
         <f>'Full List'!B6</f>
         <v>49.4</v>
@@ -17635,42 +17680,42 @@
         <v>6.1399965083769492E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="56" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="56" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="56" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>27.16</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>256</v>
       </c>
@@ -17703,16 +17748,16 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>259</v>
       </c>
@@ -17729,7 +17774,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -17750,7 +17795,7 @@
         <v>305895200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
@@ -17771,7 +17816,7 @@
         <v>78449850</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
@@ -17792,7 +17837,7 @@
         <v>345039300</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
@@ -17813,7 +17858,7 @@
         <v>1308703000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
@@ -17834,7 +17879,7 @@
         <v>4253000000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
@@ -17855,7 +17900,7 @@
         <v>7567653000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
@@ -17876,7 +17921,7 @@
         <v>2105139000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
@@ -17897,7 +17942,7 @@
         <v>637856800</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
@@ -17918,7 +17963,7 @@
         <v>763803300</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
@@ -17939,7 +17984,7 @@
         <v>7125000000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
@@ -17960,7 +18005,7 @@
         <v>348160800</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
@@ -17981,7 +18026,7 @@
         <v>128193100</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
@@ -18002,7 +18047,7 @@
         <v>348160800</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
@@ -18023,7 +18068,7 @@
         <v>132392900</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
@@ -18044,7 +18089,7 @@
         <v>1169000000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
@@ -18065,7 +18110,7 @@
         <v>495356600</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
@@ -18086,7 +18131,7 @@
         <v>402185300</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
@@ -18107,7 +18152,7 @@
         <v>901000000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
@@ -18128,7 +18173,7 @@
         <v>1343292000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
@@ -18149,7 +18194,7 @@
         <v>617000000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
@@ -18170,7 +18215,7 @@
         <v>4275634000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
@@ -18191,7 +18236,7 @@
         <v>616037900</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
@@ -18212,7 +18257,7 @@
         <v>441015400</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
@@ -18233,7 +18278,7 @@
         <v>1807063000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
@@ -18254,7 +18299,7 @@
         <v>500889600</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
@@ -18275,7 +18320,7 @@
         <v>564448700</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
@@ -18296,7 +18341,7 @@
         <v>393092900</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="e" vm="27">
         <v>#VALUE!</v>
       </c>
@@ -18317,7 +18362,7 @@
         <v>308777400</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
@@ -18338,7 +18383,7 @@
         <v>54958860</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
@@ -18359,7 +18404,7 @@
         <v>277309400</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="e" vm="30">
         <v>#VALUE!</v>
       </c>
@@ -18380,7 +18425,7 @@
         <v>755002800</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="e" vm="31">
         <v>#VALUE!</v>
       </c>
@@ -18401,7 +18446,7 @@
         <v>424502800</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="e" vm="32">
         <v>#VALUE!</v>
       </c>
@@ -18422,7 +18467,7 @@
         <v>213879900</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="e" vm="33">
         <v>#VALUE!</v>
       </c>
@@ -18443,7 +18488,7 @@
         <v>198224700</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="e" vm="34">
         <v>#VALUE!</v>
       </c>
@@ -18464,7 +18509,7 @@
         <v>56576810</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="e" vm="35">
         <v>#VALUE!</v>
       </c>
@@ -18485,7 +18530,7 @@
         <v>226986000</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="e" vm="36">
         <v>#VALUE!</v>
       </c>
@@ -18506,7 +18551,7 @@
         <v>4222296000</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="e" vm="37">
         <v>#VALUE!</v>
       </c>
@@ -18527,7 +18572,7 @@
         <v>266695200</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="e" vm="38">
         <v>#VALUE!</v>
       </c>
@@ -18548,7 +18593,7 @@
         <v>915943800</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="e" vm="39">
         <v>#VALUE!</v>
       </c>
@@ -18569,7 +18614,7 @@
         <v>771872100</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="e" vm="40">
         <v>#VALUE!</v>
       </c>
@@ -18590,7 +18635,7 @@
         <v>680163600</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="e" vm="41">
         <v>#VALUE!</v>
       </c>
@@ -18611,7 +18656,7 @@
         <v>8753289000</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="e" vm="42">
         <v>#VALUE!</v>
       </c>
@@ -18632,7 +18677,7 @@
         <v>479665300</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="e" vm="43">
         <v>#VALUE!</v>
       </c>
@@ -18653,7 +18698,7 @@
         <v>441523700</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="e" vm="44">
         <v>#VALUE!</v>
       </c>
@@ -18674,7 +18719,7 @@
         <v>573626300</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="e" vm="45">
         <v>#VALUE!</v>
       </c>
@@ -18695,7 +18740,7 @@
         <v>538951800</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="e" vm="46">
         <v>#VALUE!</v>
       </c>
@@ -18716,7 +18761,7 @@
         <v>117025900</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="e" vm="47">
         <v>#VALUE!</v>
       </c>
@@ -18737,7 +18782,7 @@
         <v>2632823000</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="e" vm="48">
         <v>#VALUE!</v>
       </c>
@@ -18758,7 +18803,7 @@
         <v>99040280</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
@@ -18779,7 +18824,7 @@
         <v>7567653000</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="e" vm="49">
         <v>#VALUE!</v>
       </c>
@@ -18800,7 +18845,7 @@
         <v>140546700</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
@@ -18821,7 +18866,7 @@
         <v>616037900</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="e" vm="50">
         <v>#VALUE!</v>
       </c>
@@ -18842,7 +18887,7 @@
         <v>422461200</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="e" vm="51">
         <v>#VALUE!</v>
       </c>
@@ -18863,7 +18908,7 @@
         <v>244314000</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="e" vm="52">
         <v>#VALUE!</v>
       </c>
@@ -18884,7 +18929,7 @@
         <v>890578700</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="e" vm="53">
         <v>#VALUE!</v>
       </c>
@@ -18905,7 +18950,7 @@
         <v>1128266000</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="e" vm="54">
         <v>#VALUE!</v>
       </c>
@@ -18926,7 +18971,7 @@
         <v>252451500</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="e" vm="55">
         <v>#VALUE!</v>
       </c>
@@ -18947,7 +18992,7 @@
         <v>126213500</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="e" vm="55">
         <v>#VALUE!</v>
       </c>
@@ -18968,7 +19013,7 @@
         <v>126213500</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="e" vm="56">
         <v>#VALUE!</v>
       </c>
@@ -18989,7 +19034,7 @@
         <v>541506600</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="e" vm="57">
         <v>#VALUE!</v>
       </c>
@@ -19024,40 +19069,40 @@
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="5"/>
-    <col min="4" max="4" width="11.26953125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" style="10" customWidth="1"/>
-    <col min="8" max="9" width="10.54296875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" style="10" customWidth="1"/>
-    <col min="11" max="12" width="12.54296875" style="30" customWidth="1"/>
-    <col min="13" max="13" width="14.54296875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="5"/>
+    <col min="4" max="4" width="11.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="10" customWidth="1"/>
+    <col min="8" max="9" width="10.5703125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="10" customWidth="1"/>
+    <col min="11" max="12" width="12.5703125" style="30" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="10" customWidth="1"/>
     <col min="14" max="14" width="10" style="10" customWidth="1"/>
-    <col min="15" max="15" width="8.81640625" style="34" customWidth="1"/>
-    <col min="16" max="16" width="8.26953125" style="30" customWidth="1"/>
-    <col min="17" max="17" width="11.54296875" style="16" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" style="16" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" style="23" customWidth="1"/>
-    <col min="20" max="20" width="14.81640625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="34" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="30" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="16" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="16" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="23" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="23" customWidth="1"/>
     <col min="21" max="21" width="9" style="5" customWidth="1"/>
-    <col min="22" max="22" width="14.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.453125" style="5" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.42578125" style="5" customWidth="1"/>
     <col min="24" max="24" width="3" style="5" customWidth="1"/>
-    <col min="25" max="25" width="1.54296875" style="5" customWidth="1"/>
-    <col min="26" max="26" width="4.7265625" style="5" customWidth="1"/>
-    <col min="27" max="28" width="10.54296875" style="5" customWidth="1"/>
-    <col min="29" max="30" width="9.1796875" style="5"/>
+    <col min="25" max="25" width="1.5703125" style="5" customWidth="1"/>
+    <col min="26" max="26" width="4.7109375" style="5" customWidth="1"/>
+    <col min="27" max="28" width="10.5703125" style="5" customWidth="1"/>
+    <col min="29" max="30" width="9.140625" style="5"/>
     <col min="31" max="31" width="11" style="5" customWidth="1"/>
-    <col min="32" max="32" width="14.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.1796875" style="5"/>
+    <col min="32" max="32" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>260</v>
       </c>
@@ -19133,7 +19178,7 @@
       <c r="AE1" s="46"/>
       <c r="AF1" s="46"/>
     </row>
-    <row r="2" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>280</v>
       </c>
@@ -19196,7 +19241,7 @@
         <v>57222000000</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>282</v>
       </c>
@@ -19260,7 +19305,7 @@
         <v>3700000000</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>285</v>
       </c>
@@ -19324,7 +19369,7 @@
         <v>2510000000</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>286</v>
       </c>
@@ -19386,7 +19431,7 @@
         <v>632000000</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>287</v>
       </c>
@@ -19442,7 +19487,7 @@
         <v>30580000</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>290</v>
       </c>
@@ -19498,7 +19543,7 @@
         <v>-3410000000</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>292</v>
       </c>
@@ -19557,7 +19602,7 @@
         <v>981900000</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>294</v>
       </c>
@@ -19618,7 +19663,7 @@
         <v>-38000000</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>296</v>
       </c>
@@ -19678,7 +19723,7 @@
         <v>17210000000</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>298</v>
       </c>
@@ -19740,7 +19785,7 @@
         <v>5300000000</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>300</v>
       </c>
@@ -19799,7 +19844,7 @@
         <v>3670000000</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>302</v>
       </c>
@@ -19855,7 +19900,7 @@
         <v>0.80662721175650687</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>304</v>
       </c>
@@ -19911,7 +19956,7 @@
         <v>-541298.35529543646</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>306</v>
       </c>
@@ -19971,7 +20016,7 @@
         <v>-8.6020664793957131</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>307</v>
       </c>
@@ -20032,7 +20077,7 @@
         <v>2.5579827067418135</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>309</v>
       </c>
@@ -20090,7 +20135,7 @@
         <v>16.731434643982443</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>311</v>
       </c>
@@ -20151,7 +20196,7 @@
         <v>3.7966021195688615</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>312</v>
       </c>
@@ -20212,7 +20257,7 @@
         <v>3.2004201600480986</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>314</v>
       </c>
@@ -20273,7 +20318,7 @@
         <v>1.4753635179671742</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>316</v>
       </c>
@@ -20334,7 +20379,7 @@
         <v>2.4820966963959457</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>317</v>
       </c>
@@ -20395,7 +20440,7 @@
         <v>3.3146877366507885</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>319</v>
       </c>
@@ -20455,7 +20500,7 @@
         <v>3.8128014163470025</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>320</v>
       </c>
@@ -20516,7 +20561,7 @@
         <v>11.444853761982134</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>322</v>
       </c>
@@ -20576,7 +20621,7 @@
         <v>2.311822380376849</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>323</v>
       </c>
@@ -20637,7 +20682,7 @@
         <v>1.9878201726734632</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>324</v>
       </c>
@@ -20695,7 +20740,7 @@
         <v>6.6713106288673014</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>326</v>
       </c>
@@ -20756,7 +20801,7 @@
         <v>15.558658812174084</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>328</v>
       </c>
@@ -20817,7 +20862,7 @@
         <v>1.9339694920031372</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>330</v>
       </c>
@@ -20878,7 +20923,7 @@
         <v>2.3478155317933833</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>331</v>
       </c>
@@ -20939,7 +20984,7 @@
         <v>10.455267560960436</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>332</v>
       </c>
@@ -21000,7 +21045,7 @@
         <v>2.3113874122858835</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>333</v>
       </c>
@@ -21060,7 +21105,7 @@
         <v>1.2563360301904607</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>334</v>
       </c>
@@ -21124,7 +21169,7 @@
         <v>10970000000</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>336</v>
       </c>
@@ -21185,7 +21230,7 @@
         <v>2.2900758042724605</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>338</v>
       </c>
@@ -21246,7 +21291,7 @@
         <v>3.8442303423044311</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>340</v>
       </c>
@@ -21306,7 +21351,7 @@
         <v>7.7465796960042592</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>342</v>
       </c>
@@ -21367,7 +21412,7 @@
         <v>23.077395723761537</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>344</v>
       </c>
@@ -21428,7 +21473,7 @@
         <v>5.2309872394712054</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>346</v>
       </c>
@@ -21489,7 +21534,7 @@
         <v>5.7229929393423848</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>348</v>
       </c>
@@ -21550,7 +21595,7 @@
         <v>18.991569711311357</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>350</v>
       </c>
@@ -21605,7 +21650,7 @@
         <v>0.96902986517438694</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>352</v>
       </c>
@@ -21666,7 +21711,7 @@
         <v>14.46957219289277</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>353</v>
       </c>
@@ -21727,7 +21772,7 @@
         <v>6.9679205272721143</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>355</v>
       </c>
@@ -21788,7 +21833,7 @@
         <v>-0.31808517571430278</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>356</v>
       </c>
@@ -21848,7 +21893,7 @@
         <v>8.645350976013539</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>357</v>
       </c>
@@ -21909,7 +21954,7 @@
         <v>2.5652288229578124</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>359</v>
       </c>
@@ -21967,7 +22012,7 @@
         <v>15.817954148537234</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>361</v>
       </c>
@@ -22028,7 +22073,7 @@
         <v>10.004901817814547</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>363</v>
       </c>
@@ -22086,7 +22131,7 @@
         <v>3.228719885649769</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>364</v>
       </c>
@@ -22147,7 +22192,7 @@
         <v>2.2668712471364274</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>365</v>
       </c>
@@ -22205,7 +22250,7 @@
         <v>33.19998377905052</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>367</v>
       </c>
@@ -22266,7 +22311,7 @@
         <v>16.399334920767444</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>369</v>
       </c>
@@ -22327,7 +22372,7 @@
         <v>2.7445013213854583</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>371</v>
       </c>
@@ -22388,7 +22433,7 @@
         <v>3.7833991933134525</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>373</v>
       </c>
@@ -22449,7 +22494,7 @@
         <v>4.1128463188701145</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>374</v>
       </c>
@@ -22510,7 +22555,7 @@
         <v>3.9180448326389392</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>375</v>
       </c>
@@ -22571,7 +22616,7 @@
         <v>10.244030338509424</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>377</v>
       </c>
@@ -22632,7 +22677,7 @@
         <v>17.557720572972315</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>379</v>
       </c>
@@ -22693,7 +22738,7 @@
         <v>21.474943431748475</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>381</v>
       </c>
@@ -22754,7 +22799,7 @@
         <v>4.5901592258464463</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>382</v>
       </c>
@@ -22815,7 +22860,7 @@
         <v>13.330700590090993</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>384</v>
       </c>
@@ -22876,7 +22921,7 @@
         <v>6.3800574192294484</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>386</v>
       </c>
@@ -22937,7 +22982,7 @@
         <v>7.9156104682641919</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>388</v>
       </c>
@@ -22998,7 +23043,7 @@
         <v>5.3474356404895422</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>390</v>
       </c>
@@ -23054,7 +23099,7 @@
         <v>46.933362081791991</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>392</v>
       </c>
@@ -23115,7 +23160,7 @@
         <v>4.6180101438705927</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>394</v>
       </c>
@@ -23176,7 +23221,7 @@
         <v>14.886690748327696</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>395</v>
       </c>
@@ -23237,7 +23282,7 @@
         <v>7.0559399243788468</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>397</v>
       </c>
@@ -23298,7 +23343,7 @@
         <v>24.741724077489565</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>399</v>
       </c>
@@ -23359,7 +23404,7 @@
         <v>8.2161295507196179</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>401</v>
       </c>
@@ -23414,7 +23459,7 @@
         <v>14.835860957101671</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>402</v>
       </c>
@@ -23474,7 +23519,7 @@
         <v>4.9567753767734954</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>404</v>
       </c>
@@ -23535,7 +23580,7 @@
         <v>9.8004816967617518</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>405</v>
       </c>
@@ -23596,7 +23641,7 @@
         <v>8.1213272617887586</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>407</v>
       </c>
@@ -23657,7 +23702,7 @@
         <v>1.1626967486058266</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>408</v>
       </c>
@@ -23718,7 +23763,7 @@
         <v>7.7450827642850157</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>410</v>
       </c>
@@ -23779,7 +23824,7 @@
         <v>10.012340190540257</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>412</v>
       </c>
@@ -23840,7 +23885,7 @@
         <v>5.4111389681917634</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>414</v>
       </c>
@@ -23901,7 +23946,7 @@
         <v>37.705822168340475</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>416</v>
       </c>
@@ -23962,7 +24007,7 @@
         <v>14.741129807559309</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>417</v>
       </c>
@@ -24020,7 +24065,7 @@
         <v>-19.287453897214828</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>418</v>
       </c>
@@ -24081,7 +24126,7 @@
         <v>7.8319059381449385</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>420</v>
       </c>
@@ -24142,7 +24187,7 @@
         <v>33.528652470126865</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>422</v>
       </c>
@@ -24203,7 +24248,7 @@
         <v>11.594451691383801</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>424</v>
       </c>
@@ -24263,7 +24308,7 @@
         <v>7.8197661505146687</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>426</v>
       </c>
@@ -24324,7 +24369,7 @@
         <v>29.788525083803773</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>428</v>
       </c>
@@ -24337,7 +24382,7 @@
       </c>
       <c r="U88" s="17"/>
     </row>
-    <row r="89" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="42" t="s">
         <v>430</v>
       </c>
@@ -24426,22 +24471,22 @@
       <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
         <v>434</v>
       </c>
@@ -24449,62 +24494,62 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="56" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>32.33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="56" t="s">
         <v>446</v>
       </c>
@@ -24512,12 +24557,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="56" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="56" t="s">
         <v>449</v>
       </c>
@@ -24525,7 +24570,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>451</v>
       </c>
@@ -24536,17 +24581,17 @@
         <v>453</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="56" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="56" t="s">
         <v>456</v>
       </c>
@@ -24554,12 +24599,12 @@
         <v>457</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="56" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
         <v>459</v>
       </c>
@@ -24567,7 +24612,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="56" t="s">
         <v>461</v>
       </c>
@@ -24602,15 +24647,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" style="52" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" style="50" customWidth="1"/>
-    <col min="3" max="10" width="13.1796875" style="50" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="50"/>
+    <col min="1" max="1" width="28.5703125" style="52" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="50" customWidth="1"/>
+    <col min="3" max="10" width="13.140625" style="50" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53"/>
       <c r="B1" s="54" t="s">
         <v>36</v>
@@ -24679,7 +24724,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>472</v>
       </c>
@@ -24696,7 +24741,7 @@
         <v>13.87</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>473</v>
       </c>
@@ -24713,7 +24758,7 @@
         <v>4272</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>474</v>
       </c>
@@ -24754,7 +24799,7 @@
         <v>5.36</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>475</v>
       </c>
@@ -24771,7 +24816,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>476</v>
       </c>
@@ -24815,7 +24860,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>482</v>
       </c>
@@ -24829,7 +24874,7 @@
         <v>4.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>483</v>
       </c>
@@ -24843,7 +24888,7 @@
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>484</v>
       </c>
@@ -24856,7 +24901,7 @@
         <v>12.112062256809338</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
         <v>485</v>
       </c>
@@ -24864,12 +24909,12 @@
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
         <v>488</v>
       </c>
@@ -24877,7 +24922,7 @@
         <v>5.1400000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>489</v>
       </c>
@@ -24936,7 +24981,7 @@
         <v>7.8399999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
         <v>490</v>
       </c>
@@ -24995,12 +25040,12 @@
         <v>0.79049999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>492</v>
       </c>
@@ -25011,32 +25056,32 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F29" s="50" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>498</v>
       </c>
@@ -25044,7 +25089,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>500</v>
       </c>
@@ -25055,7 +25100,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>503</v>
       </c>
@@ -25063,7 +25108,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>505</v>
       </c>
@@ -25071,17 +25116,17 @@
         <v>506</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F34" s="50" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F35" s="50" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F36" s="50" t="s">
         <v>509</v>
       </c>
